--- a/ner/specs/persons-merged.xlsx
+++ b/ner/specs/persons-merged.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R852"/>
+  <dimension ref="A1:R859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4003,7 +4003,7 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Luigi d ' Este</t>
+          <t>Luigi d ’ Este</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>capitano di guardie dell ' Eccellenza sua</t>
+          <t>capitano di guardie dell ’ Eccellenza sua</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4481,7 +4481,7 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Anthonio; Antoni; Antonio; Antonio Liguri dal Zant; Antonio Liguri dal Zanthe; Antonis; greco dal Zanthe</t>
+          <t>Antonio Liguri dal Zant; Antonio Liguri dal Zanthe; greco dal Zanthe</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -14556,15 +14556,17 @@
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr">
         <is>
-          <t>ambasciator Gussoni</t>
+          <t>Vicenzo Gussoni; ambasciator Gussoni</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Venetian envoy to Protestant German courts 1615 to inform them about Venetian negotiations with archduke Ferdinand and to Paris along with Ottavio </t>
-        </is>
-      </c>
-      <c r="G325" t="inlineStr"/>
+          <t>Venetian patrician</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>1575</v>
+      </c>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -14572,10 +14574,18 @@
       <c r="L325" t="inlineStr"/>
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr"/>
-      <c r="O325" t="inlineStr"/>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He had taken been appointed to various positions in the Venetian terraferma. He travelled to the the Protestant German courts in 1615 (one year before Suriano) to inform them about Venetian negotiations with archduke Ferdinand and then joined Ottavio Bon as Venetian envoy in Paris. The two belonged to different groups in Venetian politics, Gussoni was part of the 'nuovi', more in line with Sarpian vision of the Republic (anti-Habsburg and anti-papal). Bon concluded a peace deal and abonded their Savoyan allies, while Gussoni did not agree with this course of action, he also paid a heavy price/ After his mission to France ended (1618), he was not appointed to political positions for a couple of years, only in 1621, he was appointed a savio di terraferma, and in this capacity he was involved in the case of conviction of Dutch soldiers to the galleys. </t>
+        </is>
+      </c>
       <c r="P325" t="inlineStr"/>
       <c r="Q325" t="inlineStr"/>
-      <c r="R325" t="inlineStr"/>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>https://www.treccani.it/enciclopedia/vincenzo-gussoni_res-6aec00ab-87ee-11dc-8e9d-0016357eee51_(Dizionario-Biografico)/</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr"/>
@@ -14621,7 +14631,7 @@
       <c r="Q326" t="inlineStr"/>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Gotthard1992</t>
+          <t>Gotthard 1992</t>
         </is>
       </c>
     </row>
@@ -16006,7 +16016,7 @@
       <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr">
         <is>
-          <t>conte d ' Ortembourgh; conte d ' Ortenburgh; conte di Ortembourgh; d ' Ortemburgh</t>
+          <t>conte d ’ Ortembourgh; conte d ’ Ortenburgh; conte di Ortembourgh; d ’ Ortemburgh</t>
         </is>
       </c>
       <c r="F358" t="inlineStr"/>
@@ -17382,7 +17392,7 @@
       <c r="D390" t="inlineStr"/>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Maestà della Gran Bertagna; Maestà della Gran Bretagna; corte di Inghilterra; re d ' Inghilterra; re della Gran Bartagna; re della Gran Bertagna; re della Gran Berttagna; re della Gran Bretagna; re della gran Bertagna; re di Inghilterra</t>
+          <t>Maestà della Gran Bertagna; Maestà della Gran Bretagna; corte di Inghilterra; re d ’ Inghilterra; re della Gran Bartagna; re della Gran Bertagna; re della Gran Berttagna; re della Gran Bretagna; re della gran Bertagna; re di Inghilterra</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -18566,7 +18576,7 @@
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr">
         <is>
-          <t>principessa d ' Oranges; signora principessa d ’ Oranges; signora principessa di Oranges</t>
+          <t>principessa d ’ Oranges; signora principessa d ’ Oranges; signora principessa di Oranges</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -20914,7 +20924,7 @@
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>' l Chercoven; Amiraglio Kerkoven; Cercoven; Chercoven; Cherrcoven; Kerckoven; Kercoven; Kerkoven; Melchior Vanden Kerchoven; Melchior Vanden Kerckoven; Melchior Vanden Kercoven; amiraglio Chercoven; amiraglio Kercoven; amiraglio vanden Kercoven</t>
+          <t>Amiraglio Kerkoven; Cercoven; Chercoven; Cherrcoven; Kerckoven; Kercoven; Kerkoven; Melchior Vanden Kerchoven; Melchior Vanden Kerckoven; Melchior Vanden Kercoven; amiraglio Chercoven; amiraglio Kercoven; amiraglio vanden Kercoven; ’ l Chercoven</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -21066,7 +21076,7 @@
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>marascial d ' Ancre</t>
+          <t>marascial d ’ Ancre</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -22868,7 +22878,7 @@
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>Landtgravio d ' Armenstat; Langravio d ’ Assia; Langravio di Hassia; landtgrave Ludovico di Darmenstat; landtgrave de Darmenstat; landtgrave di Darmenstat; landtgrave o marchese di Darmenstat; lantgrave Lodovico di Armenstat; lantgrave Lodovico di Darmenstat; lantgrave d ’ Hassia; lantgrave di Darmenstat</t>
+          <t>Landtgravio d ’ Armenstat; Langravio d ’ Assia; Langravio di Hassia; landtgrave Ludovico di Darmenstat; landtgrave de Darmenstat; landtgrave di Darmenstat; landtgrave o marchese di Darmenstat; lantgrave Lodovico di Armenstat; lantgrave Lodovico di Darmenstat; lantgrave d ’ Hassia; lantgrave di Darmenstat</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -26211,7 +26221,7 @@
       <c r="D604" t="inlineStr"/>
       <c r="E604" t="inlineStr">
         <is>
-          <t>Ian Ianson Van Der Lindem; Jan Janson Vander Linden</t>
+          <t>Ian Ianson Van Der Lindem; Jan Janson Vander Linden; Jan Janson Linden</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
@@ -26261,7 +26271,7 @@
       <c r="D605" t="inlineStr"/>
       <c r="E605" t="inlineStr">
         <is>
-          <t>Ian Ianson Van Der Lindem; Jan Janson Vander Linden; Jan Janson Vander Linder; Jan Jansson vander Linden; capitan Ian Ianson Van Linden; capitano Jan Janssoon van Linden</t>
+          <t>Ian Ianson Van Der Lindem; Ian Ianson Van Linden; Jan Janson Vander Linden; Jan Janson Vander Linder; Jan Jansson vander Linden; Jan Janssoon van Linden</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
@@ -29241,7 +29251,7 @@
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>duchessa di Bransuich; duchessa di Bransvich</t>
+          <t>duchessa di Bransuich</t>
         </is>
       </c>
       <c r="F675" t="inlineStr">
@@ -29283,7 +29293,7 @@
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>madre del Duca</t>
+          <t>duchessa di Bransuich; duchessa di Bransvich; madre del Duca</t>
         </is>
       </c>
       <c r="F676" t="inlineStr">
@@ -32024,7 +32034,7 @@
       <c r="D739" t="inlineStr"/>
       <c r="E739" t="inlineStr">
         <is>
-          <t>Signor d ' Otthin</t>
+          <t>Signor d ’ Otthin</t>
         </is>
       </c>
       <c r="F739" t="inlineStr">
@@ -32578,7 +32588,7 @@
       <c r="D751" t="inlineStr"/>
       <c r="E751" t="inlineStr">
         <is>
-          <t>[ duc ] a d ' Angauleme</t>
+          <t>[ duc ] a d ’ Angauleme</t>
         </is>
       </c>
       <c r="F751" t="inlineStr">
@@ -33216,7 +33226,7 @@
       <c r="D765" t="inlineStr"/>
       <c r="E765" t="inlineStr">
         <is>
-          <t>Rodrighes d ' Andrada; Rodrighes d ’ Andrade</t>
+          <t>Rodrighes d ’ Andrada; Rodrighes d ’ Andrade</t>
         </is>
       </c>
       <c r="F765" t="inlineStr">
@@ -33291,7 +33301,7 @@
       <c r="A767" t="inlineStr"/>
       <c r="B767" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gonzalo Fernández de Córdoba y Cardona-Anglesola (1585-1635) </t>
+          <t>Gonzalo Fernández de Córdoba y Cardona-Anglesola</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -33920,7 +33930,7 @@
       <c r="D780" t="inlineStr"/>
       <c r="E780" t="inlineStr">
         <is>
-          <t>conte d ' Henin , chiamato duca di Bornenvil</t>
+          <t>conte d ’ Henin , chiamato duca di Bornenvil</t>
         </is>
       </c>
       <c r="F780" t="inlineStr">
@@ -34900,7 +34910,7 @@
       <c r="D802" t="inlineStr"/>
       <c r="E802" t="inlineStr">
         <is>
-          <t>Elman d ' Anversa</t>
+          <t>Elman d ’ Anversa</t>
         </is>
       </c>
       <c r="F802" t="inlineStr">
@@ -35622,7 +35632,7 @@
       <c r="D818" t="inlineStr"/>
       <c r="E818" t="inlineStr">
         <is>
-          <t>madama d ' Arondel</t>
+          <t>madama d ’ Arondel</t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
@@ -36190,7 +36200,7 @@
       <c r="D830" t="inlineStr"/>
       <c r="E830" t="inlineStr">
         <is>
-          <t>Baron d ' Aruch; Carlo di Harach; Carole de Harach; Signor di Harach; baron d ’ Arach</t>
+          <t>Baron d ’ Aruch; Carlo di Harach; Carole de Harach; Signor di Harach; baron d ’ Arach</t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
@@ -37194,6 +37204,294 @@
       <c r="Q852" t="inlineStr"/>
       <c r="R852" t="inlineStr"/>
     </row>
+    <row r="853">
+      <c r="A853" t="inlineStr"/>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Íñigo Vélez de Guevara, 7th Count of Oñate </t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr"/>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>Ognati; conte di Ognati</t>
+        </is>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>Spanish ambassador in Vienna from 1617 to 1623</t>
+        </is>
+      </c>
+      <c r="G853" t="n">
+        <v>1566</v>
+      </c>
+      <c r="H853" t="inlineStr"/>
+      <c r="I853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="n">
+        <v>1644</v>
+      </c>
+      <c r="L853" t="inlineStr"/>
+      <c r="M853" t="inlineStr"/>
+      <c r="N853" t="inlineStr"/>
+      <c r="O853" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamberlain of Philip II of Spain, he had served in army during the Revolt in the Netherlands. Later, he obtained important diplomatic positions, chief amongst them at the court in Vienna in 1617. He negotiated the treaty of Oñate, a crucial dynastic pact between the Spanish and German branch. He was the man to further the Spanish agenda in the Holy Roman Empire, trying to move away the war from the Palatinate to the Low Countries. </t>
+        </is>
+      </c>
+      <c r="P853" t="inlineStr"/>
+      <c r="Q853" t="inlineStr"/>
+      <c r="R853" t="inlineStr">
+        <is>
+          <t>For his role in Vienna see: Pavel Marek, La embajada española en la corte imperial (1558–1641). Figuras de los embajadores y estrategias clientelares (Prague 2013) and Ulrich Nagel, Zwischen Dynastie und Staatsräson: Die habsburgischen Botschafter in Wien und Madrid am Beginn des Dreißigjährigen Krieges (Göttingen 2018).</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr"/>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Jan Cavallier</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr"/>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>Jan Cavallier</t>
+        </is>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>Dutch lieutenant in Venetian service</t>
+        </is>
+      </c>
+      <c r="G854" t="inlineStr"/>
+      <c r="H854" t="inlineStr"/>
+      <c r="I854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="inlineStr"/>
+      <c r="M854" t="inlineStr"/>
+      <c r="N854" t="inlineStr"/>
+      <c r="O854" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Left the Netherlands as a lieutenant in company of Johan de Raedt from Rotterdam in the regiment of Van Wassenhoven. He accused several soldiers in his company of inciting mutiny who were convicted to the galleys. </t>
+        </is>
+      </c>
+      <c r="P854" t="inlineStr"/>
+      <c r="Q854" t="inlineStr"/>
+      <c r="R854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr"/>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Klaas Hendriksz.</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr"/>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>Clas Genrichson; Clas Hendrichson</t>
+        </is>
+      </c>
+      <c r="F855" t="inlineStr">
+        <is>
+          <t>Dutch soldier in Venetian service</t>
+        </is>
+      </c>
+      <c r="G855" t="inlineStr"/>
+      <c r="H855" t="inlineStr"/>
+      <c r="I855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="inlineStr"/>
+      <c r="M855" t="inlineStr"/>
+      <c r="N855" t="inlineStr"/>
+      <c r="O855" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One of the soldiers who had served Venice before being accused of inciting mutiny by their captain Jan Cavallier and convicted to the Venetian galleys (2 June 1621) </t>
+        </is>
+      </c>
+      <c r="P855" t="inlineStr"/>
+      <c r="Q855" t="inlineStr"/>
+      <c r="R855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr"/>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Hans of Jan Coster</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr"/>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>Hans Coster; Jan Coster</t>
+        </is>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>Dutch soldier in Venetian service</t>
+        </is>
+      </c>
+      <c r="G856" t="inlineStr"/>
+      <c r="H856" t="inlineStr"/>
+      <c r="I856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="inlineStr"/>
+      <c r="M856" t="inlineStr"/>
+      <c r="N856" t="inlineStr"/>
+      <c r="O856" t="inlineStr">
+        <is>
+          <t>One of the soldiers who had served Venice before being accused of inciting mutiny by their captain Jan Cavallier and being convicted to the Venetian galleys (2 June 1621)</t>
+        </is>
+      </c>
+      <c r="P856" t="inlineStr"/>
+      <c r="Q856" t="inlineStr"/>
+      <c r="R856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr"/>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Anthonius Plouvier</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr"/>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>Antonio Plouvier</t>
+        </is>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>Dutch soldier in Venetian service</t>
+        </is>
+      </c>
+      <c r="G857" t="inlineStr"/>
+      <c r="H857" t="inlineStr"/>
+      <c r="I857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="inlineStr"/>
+      <c r="M857" t="inlineStr"/>
+      <c r="N857" t="inlineStr"/>
+      <c r="O857" t="inlineStr">
+        <is>
+          <t>He was the son of Arnoult Plouvier and one of the soldiers who had served Venice before being accused of inciting mutiny by their captain Jan Cavallier and being convicted to the Venetian galleys (2 June 1621)</t>
+        </is>
+      </c>
+      <c r="P857" t="inlineStr"/>
+      <c r="Q857" t="inlineStr"/>
+      <c r="R857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr"/>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Pieter van Woerden</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr"/>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>Pietro de Woerden</t>
+        </is>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>Dutch soldier in Venetian service</t>
+        </is>
+      </c>
+      <c r="G858" t="inlineStr"/>
+      <c r="H858" t="inlineStr"/>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="inlineStr"/>
+      <c r="M858" t="inlineStr"/>
+      <c r="N858" t="inlineStr"/>
+      <c r="O858" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brother of Jan van Woerden.  One of the soldiers who had served Venice before being accused of inciting mutiny by their captain Jan Cavallier and being convicted to the Venetian galleys (2 June 1621) </t>
+        </is>
+      </c>
+      <c r="P858" t="inlineStr"/>
+      <c r="Q858" t="inlineStr"/>
+      <c r="R858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr"/>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Jan van Woerden</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr"/>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>Jan Gerth de Woerden; Jan de Woerden; Jan van Werden</t>
+        </is>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>Dutch soldier in Venetian service</t>
+        </is>
+      </c>
+      <c r="G859" t="inlineStr"/>
+      <c r="H859" t="inlineStr"/>
+      <c r="I859" t="inlineStr"/>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="inlineStr"/>
+      <c r="M859" t="inlineStr"/>
+      <c r="N859" t="inlineStr"/>
+      <c r="O859" t="inlineStr">
+        <is>
+          <t>Son of Gerard Pietersz. and brother of Pieter van Woerden. He was one of the soldiers who had served Venice before being accused of inciting mutiny by their captain Jan Cavallier and sent to the Venetian galleys on 2 June 1621. He wrote a letter to the members of his uncles Jan van Kamerijk and Van Dijck to request their help. De Roode, representative of the the States of Utrecht at the States General, pleaded their case.</t>
+        </is>
+      </c>
+      <c r="P859" t="inlineStr"/>
+      <c r="Q859" t="inlineStr"/>
+      <c r="R859" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ner/specs/persons-merged.xlsx
+++ b/ner/specs/persons-merged.xlsx
@@ -6979,7 +6979,7 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Durante di Prigni; Durante di Prigné; monsignor Durant; monsignor Durante</t>
+          <t>Durante di Prigni; Durante di Prignì; monsignor Durant; monsignor Durante</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>conte Gio . Arnesto di Nassau; conte Gioan Ernesto; conte Giovan Ernesto di Nassau; signor conte Gioan ​ di Nansau</t>
+          <t>conte Gio . Arnesto di Nassau; conte Gio Ernesto; conte Gioan Ernesto; conte Giovan Ernesto di Nassau; signor conte Gioan ​ di Nansau</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -17455,7 +17455,7 @@
       <c r="D392" t="inlineStr"/>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Bernevel; Bernevelt; Berniel; Bernoel; Bernovel; Bernve; Bernvel; Bernvelt; Bernvuel; signor Berniel</t>
+          <t>Bernevel; Bernevelt; Bernoel; Bernovel; Bernve; Bernvel; Bernvelt; Bernvuel; signor Bern vel; signor Bernauel; signor Bernevel; signor Berniel; signor Bernvel; signor Bernvelt</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>don Gio . de ’ Medici; don Gioanni; don Jan; don Joan</t>
+          <t>don Gio . de ’ Medici; don Gioanni; don Joan</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -20601,7 +20601,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>monsignor di Brederod; signor di Brederad; signor di Brederod; signori di Brederod</t>
+          <t>monsignor di Brederod; signor di Brederod; signori di Brederod</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -22545,7 +22545,7 @@
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>Conte di Holach; conte di Olach</t>
+          <t>Conte di Holach; conte di Holach; conte di Olach</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -26041,7 +26041,7 @@
       <c r="D599" t="inlineStr"/>
       <c r="E599" t="inlineStr">
         <is>
-          <t>monsignor di Brederod; signor di Brederad; signor di Brederod; signor di Clutin secondogenito della casa di Brederod; signori di Brederod</t>
+          <t>monsignor di Brederod; signor di Brederod; signor di Clutin secondogenito della casa di Brederod; signori di Brederod</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -31899,7 +31899,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>genero Vandermil; genero Vuandermil</t>
+          <t>genero Vandermil</t>
         </is>
       </c>
       <c r="F735" t="inlineStr">
@@ -35019,7 +35019,7 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t>conte di Suvart Zembergh; conte di Svart Zembergh; conte di Svartzembergh; conte di Swartzembergh; conte di Swarzembergh; conte di swarzembergh</t>
+          <t>conte di Suvart Zembergh; conte di Svart Zembergh; conte di Svartzembergh; conte di Swarzembergh; conte di swarzembergh</t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
@@ -37128,7 +37128,7 @@
       <c r="D850" t="inlineStr"/>
       <c r="E850" t="inlineStr">
         <is>
-          <t>Ognati; conte di Ognati</t>
+          <t>Ognat; Ognate; Ognati; conte di Ognati</t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
@@ -37216,7 +37216,7 @@
       <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr">
         <is>
-          <t>Clas Genrichson; Clas Hendrichson</t>
+          <t>Clas Genrichson; Clas Hendrichson; Clas Henrichson</t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
@@ -37296,7 +37296,7 @@
       <c r="D854" t="inlineStr"/>
       <c r="E854" t="inlineStr">
         <is>
-          <t>Antonio Plouvier</t>
+          <t>Antonio Plouvier; Antonio Plovier</t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
@@ -37376,7 +37376,7 @@
       <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr">
         <is>
-          <t>Jan Gerth de Woerden; Jan de Woerden; Jan van Werden</t>
+          <t>Jan Gerth de Woerden; Jan Ghert de Woerden; Jan de Woerden; Jan van Werden; Jan van Woenden</t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
@@ -37584,7 +37584,7 @@
       <c r="D861" t="inlineStr"/>
       <c r="E861" t="inlineStr">
         <is>
-          <t>colonello Bür</t>
+          <t>colonello Bür; colonnello Bür</t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
@@ -37858,7 +37858,7 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>Auler; Miller; Miller svizzero di Basilea; Muler di Basilea</t>
+          <t>Auler; Guler; Miler; Mille; Miller; Miller svizzero di Basilea; Moller; Mule di Basilea; Muler di Basilea; Muller</t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
@@ -37950,7 +37950,7 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t>un moscovita</t>
+          <t>moscovita; un moscovita</t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
